--- a/Results AS.xlsx
+++ b/Results AS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloshernandez/Documents/School/Udacity/Artificial Intelligence/Adversarial-Search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A4B40A-60DD-FE48-8858-8654AC9C403F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3989537-6752-C44E-8DAA-1D45BCCF6057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{B254BC62-EC88-154C-A4A4-A1C8B8821109}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Minimax</t>
-  </si>
-  <si>
-    <t>Greedy First</t>
+    <t>Depth: 9</t>
+  </si>
+  <si>
+    <t>Depth: 3</t>
   </si>
 </sst>
 </file>
@@ -80,21 +80,39 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,21 +120,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5450DAF-8CF9-DE42-8443-AA138830E4C0}">
-  <dimension ref="B3:F10"/>
+  <dimension ref="B3:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,29 +590,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -475,45 +620,111 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>0.49</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
